--- a/database-updated.xlsx
+++ b/database-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RHovel05/Repos/react/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673F3CD-8B2C-EA4E-9176-F83291E13FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0BAE4-F549-D844-BE34-FA5D454BE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="4820" windowWidth="30740" windowHeight="15840" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>claw, bite, slash, gnaw</t>
   </si>
   <si>
-    <t>hammer, bash, stomp, gawp</t>
-  </si>
-  <si>
     <t>stumble, claw, bite, gnaw</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>shoot, glamour, slash</t>
+  </si>
+  <si>
+    <t>, bash, stomp, gawp</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/database-updated.xlsx
+++ b/database-updated.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RHovel05/Repos/react/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0BAE4-F549-D844-BE34-FA5D454BE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562AC9C8-6465-424A-B630-66F86431AB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="4820" windowWidth="30740" windowHeight="15840" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
+    <workbookView xWindow="1580" yWindow="4820" windowWidth="30740" windowHeight="15840" activeTab="3" xr2:uid="{160CBDD7-4B1C-4298-97AC-BA88D9FC3914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>creature</t>
   </si>
@@ -130,11 +131,93 @@
   <si>
     <t>, bash, stomp, gawp</t>
   </si>
+  <si>
+    <t>Attackname</t>
+  </si>
+  <si>
+    <t>healthpoints</t>
+  </si>
+  <si>
+    <t>weaponskill</t>
+  </si>
+  <si>
+    <t>manapoints</t>
+  </si>
+  <si>
+    <t>magicresistance</t>
+  </si>
+  <si>
+    <t>totaldamage</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Stumble</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>Growl</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>Sword Dance</t>
+  </si>
+  <si>
+    <t>Spit</t>
+  </si>
+  <si>
+    <t>Flying Claw</t>
+  </si>
+  <si>
+    <t>Headbutt</t>
+  </si>
+  <si>
+    <t>Zombie Bite</t>
+  </si>
+  <si>
+    <t>Double Strike</t>
+  </si>
+  <si>
+    <t>Skull Crush</t>
+  </si>
+  <si>
+    <t>Lunge</t>
+  </si>
+  <si>
+    <t>Blade Storm</t>
+  </si>
+  <si>
+    <t>Shiv</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>combatant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.#"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,9 +260,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5C106-A15B-4980-9EB9-FA4DAE8E2BEA}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -836,4 +924,736 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BA645-C45F-8E46-B3E7-22891B9F8B7B}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.2</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.25</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>